--- a/frases.xlsx
+++ b/frases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Desktop\PW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAF8B1D-0816-488E-9D9E-C32846190A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE97E59-C1A6-4C13-A26D-485031FA9CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{25C948F1-7A33-4D94-98AD-6EB528F8AC52}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
   <si>
     <t>Frase</t>
   </si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t>https://media.a24.com/p/8f540ce8a64086c4ad6ca018327a9ed1/adjuntos/296/imagenes/008/840/0008840695/1200x675/smart/turco-garcia.jpeg</t>
+  </si>
+  <si>
+    <t>Video</t>
   </si>
 </sst>
 </file>
@@ -805,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C18E3F-5D5D-4FB3-9767-4D076CB0EACE}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,7 +819,7 @@
     <col min="1" max="1" width="48.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -843,8 +849,11 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -857,8 +866,11 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -871,8 +883,11 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -886,7 +901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -900,7 +915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -914,7 +929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -928,7 +943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -942,7 +957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -956,7 +971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -970,7 +985,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -984,7 +999,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -998,7 +1013,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1009,7 +1024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1023,7 +1038,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
